--- a/Team-Data/2008-09/2-17-2008-09.xlsx
+++ b/Team-Data/2008-09/2-17-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,37 +733,37 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" t="n">
         <v>31</v>
       </c>
       <c r="F2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="n">
-        <v>0.585</v>
+        <v>0.596</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>35.9</v>
+        <v>36</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>78.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L2" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="N2" t="n">
-        <v>0.369</v>
+        <v>0.372</v>
       </c>
       <c r="O2" t="n">
         <v>19.1</v>
@@ -705,91 +772,91 @@
         <v>25.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.737</v>
+        <v>0.738</v>
       </c>
       <c r="R2" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S2" t="n">
-        <v>29.5</v>
+        <v>29.6</v>
       </c>
       <c r="T2" t="n">
         <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V2" t="n">
         <v>12.9</v>
       </c>
       <c r="W2" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z2" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>28</v>
       </c>
       <c r="AI2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ2" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AM2" t="n">
         <v>5</v>
       </c>
       <c r="AN2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AO2" t="n">
         <v>15</v>
       </c>
       <c r="AP2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
         <v>21</v>
       </c>
       <c r="AS2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT2" t="n">
         <v>23</v>
@@ -798,28 +865,28 @@
         <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
       </c>
       <c r="BA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="BB2" t="n">
         <v>15</v>
       </c>
-      <c r="BB2" t="n">
-        <v>18</v>
-      </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -848,58 +915,58 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="n">
         <v>11</v>
       </c>
       <c r="G3" t="n">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="H3" t="n">
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
         <v>77.40000000000001</v>
       </c>
       <c r="K3" t="n">
-        <v>0.484</v>
+        <v>0.483</v>
       </c>
       <c r="L3" t="n">
         <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.387</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
         <v>20.1</v>
       </c>
       <c r="P3" t="n">
-        <v>25.8</v>
+        <v>25.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="R3" t="n">
         <v>10.9</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="V3" t="n">
         <v>15.8</v>
@@ -908,34 +975,34 @@
         <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5</v>
+        <v>101.3</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
       </c>
       <c r="AF3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AM3" t="n">
         <v>19</v>
@@ -962,10 +1029,10 @@
         <v>9</v>
       </c>
       <c r="AP3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>11</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>16</v>
@@ -974,19 +1041,19 @@
         <v>4</v>
       </c>
       <c r="AT3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,7 +1062,7 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1030,25 +1097,25 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="n">
         <v>21</v>
       </c>
       <c r="F4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G4" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H4" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J4" t="n">
-        <v>76.40000000000001</v>
+        <v>76</v>
       </c>
       <c r="K4" t="n">
         <v>0.451</v>
@@ -1063,22 +1130,22 @@
         <v>0.364</v>
       </c>
       <c r="O4" t="n">
-        <v>17.7</v>
+        <v>17.9</v>
       </c>
       <c r="P4" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="R4" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S4" t="n">
-        <v>28.6</v>
+        <v>28.5</v>
       </c>
       <c r="T4" t="n">
-        <v>39.3</v>
+        <v>39</v>
       </c>
       <c r="U4" t="n">
         <v>21</v>
@@ -1090,34 +1157,34 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Z4" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.3</v>
+        <v>92.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AH4" t="n">
         <v>2</v>
@@ -1129,25 +1196,25 @@
         <v>30</v>
       </c>
       <c r="AK4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
       </c>
       <c r="AM4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN4" t="n">
         <v>18</v>
       </c>
       <c r="AO4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AP4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR4" t="n">
         <v>20</v>
@@ -1162,7 +1229,7 @@
         <v>14</v>
       </c>
       <c r="AV4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW4" t="n">
         <v>18</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1212,91 +1279,91 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>0.423</v>
+        <v>0.434</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.90000000000001</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>0.449</v>
+        <v>0.45</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="N5" t="n">
         <v>0.375</v>
       </c>
       <c r="O5" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="P5" t="n">
-        <v>23.9</v>
+        <v>24.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.785</v>
+        <v>0.784</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.1</v>
+        <v>-1.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AE5" t="n">
         <v>19</v>
       </c>
       <c r="AF5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>19</v>
@@ -1314,19 +1381,19 @@
         <v>21</v>
       </c>
       <c r="AL5" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AM5" t="n">
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1335,7 +1402,7 @@
         <v>6</v>
       </c>
       <c r="AS5" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AT5" t="n">
         <v>10</v>
@@ -1344,13 +1411,13 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AW5" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY5" t="n">
         <v>28</v>
@@ -1359,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1394,103 +1461,103 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E6" t="n">
         <v>40</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8</v>
+        <v>0.784</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.473</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.384</v>
+        <v>0.382</v>
       </c>
       <c r="O6" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.7</v>
+        <v>24.9</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.753</v>
+        <v>0.752</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>30.9</v>
+        <v>31</v>
       </c>
       <c r="T6" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
       </c>
       <c r="X6" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.1</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
@@ -1502,46 +1569,46 @@
         <v>4</v>
       </c>
       <c r="AN6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO6" t="n">
         <v>22</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>10</v>
       </c>
       <c r="AT6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU6" t="n">
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
         <v>8</v>
       </c>
       <c r="AX6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY6" t="n">
         <v>4</v>
       </c>
-      <c r="AY6" t="n">
-        <v>5</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BB6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>1.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1681,13 +1748,13 @@
         <v>13</v>
       </c>
       <c r="AM7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AN7" t="n">
         <v>24</v>
       </c>
       <c r="AO7" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AP7" t="n">
         <v>29</v>
@@ -1696,10 +1763,10 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT7" t="n">
         <v>7</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1836,25 +1903,25 @@
         <v>3.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI8" t="n">
         <v>12</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
@@ -1863,10 +1930,10 @@
         <v>15</v>
       </c>
       <c r="AM8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN8" t="n">
         <v>17</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>15</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,7 +1945,7 @@
         <v>21</v>
       </c>
       <c r="AR8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>12</v>
@@ -1887,10 +1954,10 @@
         <v>18</v>
       </c>
       <c r="AU8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" t="n">
         <v>27</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G9" t="n">
-        <v>0.519</v>
+        <v>0.529</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
@@ -1970,34 +2037,34 @@
         <v>13.5</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.35</v>
       </c>
       <c r="O9" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P9" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.747</v>
+        <v>0.746</v>
       </c>
       <c r="R9" t="n">
         <v>10.8</v>
       </c>
       <c r="S9" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T9" t="n">
         <v>40.6</v>
       </c>
       <c r="U9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V9" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W9" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="X9" t="n">
         <v>4.8</v>
@@ -2009,37 +2076,37 @@
         <v>21.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.7</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG9" t="n">
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI9" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL9" t="n">
         <v>27</v>
@@ -2051,22 +2118,22 @@
         <v>23</v>
       </c>
       <c r="AO9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AP9" t="n">
         <v>24</v>
       </c>
       <c r="AQ9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AS9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2075,10 +2142,10 @@
         <v>1</v>
       </c>
       <c r="AW9" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AX9" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY9" t="n">
         <v>4</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -2206,7 +2273,7 @@
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2218,7 +2285,7 @@
         <v>2</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK10" t="n">
         <v>15</v>
@@ -2227,10 +2294,10 @@
         <v>14</v>
       </c>
       <c r="AM10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AO10" t="n">
         <v>2</v>
@@ -2239,16 +2306,16 @@
         <v>2</v>
       </c>
       <c r="AQ10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" t="n">
         <v>21</v>
       </c>
       <c r="G11" t="n">
-        <v>0.611</v>
+        <v>0.604</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.6</v>
+        <v>35.5</v>
       </c>
       <c r="J11" t="n">
-        <v>80</v>
+        <v>79.8</v>
       </c>
       <c r="K11" t="n">
         <v>0.445</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="M11" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.372</v>
       </c>
       <c r="O11" t="n">
         <v>19.8</v>
       </c>
       <c r="P11" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q11" t="n">
         <v>0.8090000000000001</v>
       </c>
       <c r="R11" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T11" t="n">
-        <v>43.1</v>
+        <v>42.8</v>
       </c>
       <c r="U11" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="V11" t="n">
         <v>14.1</v>
@@ -2367,22 +2434,22 @@
         <v>3.7</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="Z11" t="n">
-        <v>18.9</v>
+        <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.59999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,25 +2461,25 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ11" t="n">
         <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AM11" t="n">
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO11" t="n">
         <v>10</v>
@@ -2424,22 +2491,22 @@
         <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AS11" t="n">
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AU11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
@@ -2451,13 +2518,13 @@
         <v>2</v>
       </c>
       <c r="BA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="BB11" t="n">
         <v>18</v>
       </c>
-      <c r="BB11" t="n">
-        <v>17</v>
-      </c>
       <c r="BC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4</v>
+        <v>0.389</v>
       </c>
       <c r="H12" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I12" t="n">
         <v>38.8</v>
@@ -2507,40 +2574,40 @@
         <v>85.90000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>0.452</v>
+        <v>0.451</v>
       </c>
       <c r="L12" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
         <v>21.2</v>
       </c>
       <c r="N12" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="P12" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R12" t="n">
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T12" t="n">
-        <v>43.2</v>
+        <v>43.1</v>
       </c>
       <c r="U12" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="V12" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
@@ -2549,43 +2616,43 @@
         <v>5.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z12" t="n">
         <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.7</v>
+        <v>104.8</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2.1</v>
+        <v>-2.3</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
       </c>
       <c r="AG12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH12" t="n">
         <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>5</v>
@@ -2606,7 +2673,7 @@
         <v>4</v>
       </c>
       <c r="AR12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS12" t="n">
         <v>3</v>
@@ -2615,13 +2682,13 @@
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AW12" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AX12" t="n">
         <v>11</v>
@@ -2630,16 +2697,16 @@
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
       </c>
       <c r="BB12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -2668,19 +2735,19 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E13" t="n">
         <v>13</v>
       </c>
       <c r="F13" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" t="n">
-        <v>0.241</v>
+        <v>0.245</v>
       </c>
       <c r="H13" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I13" t="n">
         <v>35.7</v>
@@ -2692,37 +2759,37 @@
         <v>0.435</v>
       </c>
       <c r="L13" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M13" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="N13" t="n">
-        <v>0.343</v>
+        <v>0.34</v>
       </c>
       <c r="O13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="P13" t="n">
         <v>22.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.754</v>
+        <v>0.752</v>
       </c>
       <c r="R13" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>29.1</v>
       </c>
       <c r="T13" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U13" t="n">
         <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>6.9</v>
@@ -2731,7 +2798,7 @@
         <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
@@ -2740,13 +2807,13 @@
         <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.59999999999999</v>
+        <v>94.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2773,19 +2840,19 @@
         <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AR13" t="n">
         <v>11</v>
@@ -2794,22 +2861,22 @@
         <v>24</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU13" t="n">
         <v>15</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2818,10 +2885,10 @@
         <v>25</v>
       </c>
       <c r="BB13" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BC13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -2865,46 +2932,46 @@
         <v>48.3</v>
       </c>
       <c r="I14" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="J14" t="n">
-        <v>85</v>
+        <v>84.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.479</v>
       </c>
       <c r="L14" t="n">
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.765</v>
+        <v>0.767</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.4</v>
       </c>
       <c r="S14" t="n">
         <v>31.8</v>
       </c>
       <c r="T14" t="n">
-        <v>44.6</v>
+        <v>44.2</v>
       </c>
       <c r="U14" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V14" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.300000000000001</v>
@@ -2916,7 +2983,7 @@
         <v>4.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="AA14" t="n">
         <v>22.9</v>
@@ -2925,10 +2992,10 @@
         <v>108.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2949,7 +3016,7 @@
         <v>4</v>
       </c>
       <c r="AK14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2967,13 +3034,13 @@
         <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,10 +3061,10 @@
         <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E15" t="n">
         <v>15</v>
       </c>
       <c r="F15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G15" t="n">
-        <v>0.283</v>
+        <v>0.288</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
@@ -3056,61 +3123,61 @@
         <v>0.449</v>
       </c>
       <c r="L15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="M15" t="n">
         <v>13.8</v>
       </c>
       <c r="N15" t="n">
-        <v>0.336</v>
+        <v>0.337</v>
       </c>
       <c r="O15" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="P15" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.755</v>
+        <v>0.753</v>
       </c>
       <c r="R15" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S15" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T15" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="U15" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="V15" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="W15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X15" t="n">
         <v>4.3</v>
       </c>
       <c r="Y15" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA15" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.3</v>
+        <v>93.2</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6</v>
       </c>
       <c r="AD15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE15" t="n">
         <v>26</v>
@@ -3125,13 +3192,13 @@
         <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AJ15" t="n">
         <v>28</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>28</v>
@@ -3146,34 +3213,34 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AS15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AT15" t="n">
         <v>26</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>27</v>
       </c>
       <c r="AU15" t="n">
         <v>30</v>
       </c>
       <c r="AV15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AW15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>23</v>
       </c>
       <c r="AY15" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3292,10 +3359,10 @@
         <v>0.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,13 +3395,13 @@
         <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>27</v>
       </c>
       <c r="AR16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS16" t="n">
         <v>23</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>6</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3399,58 +3466,58 @@
         <v>55</v>
       </c>
       <c r="E17" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G17" t="n">
-        <v>0.491</v>
+        <v>0.473</v>
       </c>
       <c r="H17" t="n">
         <v>48.4</v>
       </c>
       <c r="I17" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K17" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L17" t="n">
         <v>5.8</v>
       </c>
       <c r="M17" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
         <v>0.359</v>
       </c>
       <c r="O17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P17" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0.782</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S17" t="n">
-        <v>29.5</v>
+        <v>29.2</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.2</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.1</v>
+        <v>14.3</v>
       </c>
       <c r="W17" t="n">
         <v>7.1</v>
@@ -3462,22 +3529,22 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="AA17" t="n">
         <v>23</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="AD17" t="n">
         <v>1</v>
       </c>
       <c r="AE17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF17" t="n">
         <v>17</v>
@@ -3489,13 +3556,13 @@
         <v>17</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
         <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
         <v>23</v>
@@ -3510,16 +3577,16 @@
         <v>7</v>
       </c>
       <c r="AP17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>9</v>
       </c>
       <c r="AR17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT17" t="n">
         <v>15</v>
@@ -3528,10 +3595,10 @@
         <v>9</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3540,13 +3607,13 @@
         <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
       </c>
       <c r="BB17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC17" t="n">
         <v>15</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G18" t="n">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,7 +3663,7 @@
         <v>36.9</v>
       </c>
       <c r="J18" t="n">
-        <v>84.09999999999999</v>
+        <v>84</v>
       </c>
       <c r="K18" t="n">
         <v>0.439</v>
@@ -3605,64 +3672,64 @@
         <v>6</v>
       </c>
       <c r="M18" t="n">
-        <v>17.8</v>
+        <v>17.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.335</v>
+        <v>0.337</v>
       </c>
       <c r="O18" t="n">
-        <v>19.1</v>
+        <v>18.9</v>
       </c>
       <c r="P18" t="n">
-        <v>24.7</v>
+        <v>24.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T18" t="n">
         <v>42.2</v>
       </c>
       <c r="U18" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="V18" t="n">
         <v>14.2</v>
       </c>
       <c r="W18" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y18" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC18" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3683,37 +3750,37 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AN18" t="n">
         <v>28</v>
       </c>
       <c r="AO18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ18" t="n">
         <v>14</v>
       </c>
       <c r="AR18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AS18" t="n">
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AV18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3760,91 +3827,91 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E19" t="n">
         <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="n">
-        <v>0.444</v>
+        <v>0.453</v>
       </c>
       <c r="H19" t="n">
         <v>48.6</v>
       </c>
       <c r="I19" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J19" t="n">
         <v>80.2</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.444</v>
       </c>
       <c r="L19" t="n">
         <v>7.8</v>
       </c>
       <c r="M19" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O19" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P19" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
-        <v>11</v>
+        <v>11.2</v>
       </c>
       <c r="S19" t="n">
         <v>29.6</v>
       </c>
       <c r="T19" t="n">
-        <v>40.6</v>
+        <v>40.8</v>
       </c>
       <c r="U19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V19" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W19" t="n">
         <v>6.9</v>
       </c>
       <c r="X19" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y19" t="n">
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="AA19" t="n">
         <v>20.9</v>
       </c>
       <c r="AB19" t="n">
-        <v>98</v>
+        <v>98.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.3</v>
+        <v>-1.9</v>
       </c>
       <c r="AD19" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3853,34 +3920,34 @@
         <v>7</v>
       </c>
       <c r="AI19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AK19" t="n">
         <v>27</v>
       </c>
-      <c r="AJ19" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>28</v>
-      </c>
       <c r="AL19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM19" t="n">
         <v>6</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>8</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>6</v>
       </c>
       <c r="AO19" t="n">
         <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>19</v>
@@ -3895,10 +3962,10 @@
         <v>10</v>
       </c>
       <c r="AW19" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AX19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY19" t="n">
         <v>17</v>
@@ -3907,13 +3974,13 @@
         <v>26</v>
       </c>
       <c r="BA19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
       </c>
       <c r="BC19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -3942,43 +4009,43 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20" t="n">
         <v>20</v>
       </c>
       <c r="G20" t="n">
-        <v>0.608</v>
+        <v>0.6</v>
       </c>
       <c r="H20" t="n">
         <v>48</v>
       </c>
       <c r="I20" t="n">
-        <v>34.6</v>
+        <v>34.5</v>
       </c>
       <c r="J20" t="n">
         <v>76.40000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
         <v>7.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="N20" t="n">
-        <v>0.382</v>
+        <v>0.383</v>
       </c>
       <c r="O20" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P20" t="n">
-        <v>22.9</v>
+        <v>23.1</v>
       </c>
       <c r="Q20" t="n">
         <v>0.8149999999999999</v>
@@ -3987,16 +4054,16 @@
         <v>9.5</v>
       </c>
       <c r="S20" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T20" t="n">
-        <v>38.4</v>
+        <v>38.3</v>
       </c>
       <c r="U20" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4005,7 +4072,7 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z20" t="n">
         <v>20.6</v>
@@ -4014,19 +4081,19 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>95.40000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="AC20" t="n">
         <v>2.2</v>
       </c>
       <c r="AD20" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AE20" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG20" t="n">
         <v>9</v>
@@ -4035,7 +4102,7 @@
         <v>30</v>
       </c>
       <c r="AI20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AJ20" t="n">
         <v>29</v>
@@ -4047,13 +4114,13 @@
         <v>9</v>
       </c>
       <c r="AM20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AN20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4065,7 +4132,7 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT20" t="n">
         <v>30</v>
@@ -4077,19 +4144,19 @@
         <v>3</v>
       </c>
       <c r="AW20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX20" t="n">
         <v>22</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA20" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BB20" t="n">
         <v>25</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -4124,52 +4191,52 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E21" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F21" t="n">
         <v>31</v>
       </c>
       <c r="G21" t="n">
-        <v>0.415</v>
+        <v>0.404</v>
       </c>
       <c r="H21" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I21" t="n">
-        <v>38.5</v>
+        <v>38.4</v>
       </c>
       <c r="J21" t="n">
-        <v>86.7</v>
+        <v>86.5</v>
       </c>
       <c r="K21" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L21" t="n">
         <v>10.3</v>
       </c>
       <c r="M21" t="n">
-        <v>28.8</v>
+        <v>28.9</v>
       </c>
       <c r="N21" t="n">
         <v>0.358</v>
       </c>
       <c r="O21" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="P21" t="n">
         <v>22.5</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.796</v>
+        <v>0.799</v>
       </c>
       <c r="R21" t="n">
         <v>11</v>
       </c>
       <c r="S21" t="n">
-        <v>31.6</v>
+        <v>31.5</v>
       </c>
       <c r="T21" t="n">
         <v>42.5</v>
@@ -4181,7 +4248,7 @@
         <v>14.9</v>
       </c>
       <c r="W21" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X21" t="n">
         <v>2.4</v>
@@ -4196,16 +4263,16 @@
         <v>19.2</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.2</v>
+        <v>105.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.5</v>
+        <v>-2.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AF21" t="n">
         <v>20</v>
@@ -4214,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>2</v>
@@ -4238,7 +4305,7 @@
         <v>23</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
@@ -4256,16 +4323,16 @@
         <v>8</v>
       </c>
       <c r="AV21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -4306,22 +4373,22 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E22" t="n">
         <v>13</v>
       </c>
       <c r="F22" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="n">
-        <v>0.241</v>
+        <v>0.245</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
         <v>81.59999999999999</v>
@@ -4330,13 +4397,13 @@
         <v>0.449</v>
       </c>
       <c r="L22" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>11.1</v>
+        <v>10.9</v>
       </c>
       <c r="N22" t="n">
-        <v>0.366</v>
+        <v>0.37</v>
       </c>
       <c r="O22" t="n">
         <v>20.1</v>
@@ -4345,7 +4412,7 @@
         <v>26</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R22" t="n">
         <v>12.1</v>
@@ -4360,13 +4427,13 @@
         <v>20.3</v>
       </c>
       <c r="V22" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="W22" t="n">
         <v>6.8</v>
       </c>
       <c r="X22" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Y22" t="n">
         <v>5.2</v>
@@ -4384,7 +4451,7 @@
         <v>-5.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4414,13 +4481,13 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO22" t="n">
         <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ22" t="n">
         <v>13</v>
@@ -4432,25 +4499,25 @@
         <v>11</v>
       </c>
       <c r="AT22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AU22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX22" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY22" t="n">
         <v>22</v>
       </c>
       <c r="AZ22" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA22" t="n">
         <v>14</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -4488,19 +4555,19 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F23" t="n">
         <v>13</v>
       </c>
       <c r="G23" t="n">
-        <v>0.75</v>
+        <v>0.745</v>
       </c>
       <c r="H23" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I23" t="n">
         <v>36.1</v>
@@ -4521,10 +4588,10 @@
         <v>0.396</v>
       </c>
       <c r="O23" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="P23" t="n">
-        <v>27.4</v>
+        <v>27.2</v>
       </c>
       <c r="Q23" t="n">
         <v>0.722</v>
@@ -4533,10 +4600,10 @@
         <v>10.1</v>
       </c>
       <c r="S23" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>19.3</v>
@@ -4548,7 +4615,7 @@
         <v>7.1</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
         <v>3.8</v>
@@ -4557,16 +4624,16 @@
         <v>20.2</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="AB23" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="AC23" t="n">
         <v>8.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,7 +4645,7 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AI23" t="n">
         <v>20</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G24" t="n">
-        <v>0.519</v>
+        <v>0.529</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,10 +4755,10 @@
         <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>80.40000000000001</v>
+        <v>80.2</v>
       </c>
       <c r="K24" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4700,73 +4767,73 @@
         <v>13.2</v>
       </c>
       <c r="N24" t="n">
-        <v>0.318</v>
+        <v>0.322</v>
       </c>
       <c r="O24" t="n">
         <v>18.8</v>
       </c>
       <c r="P24" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R24" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S24" t="n">
-        <v>29.8</v>
+        <v>29.9</v>
       </c>
       <c r="T24" t="n">
-        <v>42.6</v>
+        <v>42.5</v>
       </c>
       <c r="U24" t="n">
         <v>20.8</v>
       </c>
       <c r="V24" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W24" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="X24" t="n">
         <v>5.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA24" t="n">
         <v>21</v>
       </c>
       <c r="AB24" t="n">
-        <v>96.5</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG24" t="n">
         <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
         <v>14</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
         <v>12</v>
@@ -4787,13 +4854,13 @@
         <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT24" t="n">
         <v>8</v>
@@ -4802,28 +4869,28 @@
         <v>16</v>
       </c>
       <c r="AV24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
       </c>
       <c r="AY24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
       </c>
       <c r="BA24" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BB24" t="n">
         <v>23</v>
       </c>
       <c r="BC24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -4852,67 +4919,67 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25" t="n">
         <v>23</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.549</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>39</v>
+        <v>38.6</v>
       </c>
       <c r="J25" t="n">
-        <v>78.40000000000001</v>
+        <v>78.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.497</v>
+        <v>0.494</v>
       </c>
       <c r="L25" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="M25" t="n">
         <v>16.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.379</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
         <v>20.9</v>
       </c>
       <c r="P25" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.76</v>
+        <v>0.761</v>
       </c>
       <c r="R25" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="S25" t="n">
-        <v>31.9</v>
+        <v>31.6</v>
       </c>
       <c r="T25" t="n">
-        <v>41.9</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="W25" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="X25" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Y25" t="n">
         <v>4.3</v>
@@ -4924,13 +4991,13 @@
         <v>22.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>105.1</v>
+        <v>104.4</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.7</v>
+        <v>0.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,13 +5009,13 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AJ25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,7 +5027,7 @@
         <v>20</v>
       </c>
       <c r="AN25" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4975,22 +5042,22 @@
         <v>27</v>
       </c>
       <c r="AS25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AT25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AW25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AX25" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -5002,10 +5069,10 @@
         <v>7</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5034,55 +5101,55 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.627</v>
+        <v>0.615</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.59999999999999</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.464</v>
+        <v>0.462</v>
       </c>
       <c r="L26" t="n">
         <v>7.3</v>
       </c>
       <c r="M26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O26" t="n">
-        <v>19</v>
+        <v>18.8</v>
       </c>
       <c r="P26" t="n">
-        <v>24.9</v>
+        <v>24.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.763</v>
+        <v>0.761</v>
       </c>
       <c r="R26" t="n">
         <v>13.1</v>
       </c>
       <c r="S26" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="T26" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
         <v>20.3</v>
@@ -5097,25 +5164,25 @@
         <v>4.9</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z26" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="AA26" t="n">
         <v>21.2</v>
       </c>
-      <c r="AA26" t="n">
-        <v>21.3</v>
-      </c>
       <c r="AB26" t="n">
-        <v>99.3</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF26" t="n">
         <v>7</v>
@@ -5124,16 +5191,16 @@
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
         <v>17</v>
       </c>
       <c r="AJ26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,40 +5209,40 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AQ26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR26" t="n">
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>16</v>
       </c>
       <c r="AU26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AV26" t="n">
         <v>7</v>
       </c>
       <c r="AW26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX26" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AY26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>17</v>
@@ -5184,10 +5251,10 @@
         <v>12</v>
       </c>
       <c r="BB26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BC26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5297,7 +5364,7 @@
         <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF27" t="n">
         <v>30</v>
@@ -5306,10 +5373,10 @@
         <v>30</v>
       </c>
       <c r="AH27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AJ27" t="n">
         <v>12</v>
@@ -5321,7 +5388,7 @@
         <v>16</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
@@ -5351,22 +5418,22 @@
         <v>27</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AX27" t="n">
         <v>26</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AZ27" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BA27" t="n">
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5398,61 +5465,61 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" t="n">
         <v>35</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.673</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H28" t="n">
-        <v>48.8</v>
+        <v>48.7</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.90000000000001</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.464</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>8</v>
       </c>
       <c r="M28" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.391</v>
+        <v>0.392</v>
       </c>
       <c r="O28" t="n">
         <v>15.8</v>
       </c>
       <c r="P28" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R28" t="n">
-        <v>8.800000000000001</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="S28" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T28" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V28" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="W28" t="n">
         <v>5.9</v>
@@ -5461,22 +5528,22 @@
         <v>4.2</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="AA28" t="n">
         <v>18.8</v>
       </c>
       <c r="AB28" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AE28" t="n">
         <v>6</v>
@@ -5485,7 +5552,7 @@
         <v>5</v>
       </c>
       <c r="AG28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH28" t="n">
         <v>1</v>
@@ -5497,13 +5564,13 @@
         <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>4</v>
       </c>
       <c r="AM28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN28" t="n">
         <v>2</v>
@@ -5521,13 +5588,13 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AT28" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>20</v>
       </c>
       <c r="BC28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AF29" t="n">
         <v>23</v>
@@ -5670,10 +5737,10 @@
         <v>23</v>
       </c>
       <c r="AH29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ29" t="n">
         <v>23</v>
@@ -5688,7 +5755,7 @@
         <v>21</v>
       </c>
       <c r="AN29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.574</v>
+        <v>0.5659999999999999</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
@@ -5780,7 +5847,7 @@
         <v>38.1</v>
       </c>
       <c r="J30" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.478</v>
@@ -5795,28 +5862,28 @@
         <v>0.34</v>
       </c>
       <c r="O30" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="P30" t="n">
-        <v>28.3</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
         <v>11.8</v>
       </c>
       <c r="S30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="T30" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U30" t="n">
         <v>24.6</v>
       </c>
       <c r="V30" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W30" t="n">
         <v>8.6</v>
@@ -5834,16 +5901,16 @@
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.8</v>
+        <v>102.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AF30" t="n">
         <v>12</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5879,13 +5946,13 @@
         <v>3</v>
       </c>
       <c r="AQ30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>17</v>
@@ -5903,7 +5970,7 @@
         <v>18</v>
       </c>
       <c r="AY30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" t="n">
         <v>42</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.208</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5965,40 +6032,40 @@
         <v>81.40000000000001</v>
       </c>
       <c r="K31" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L31" t="n">
         <v>5.2</v>
       </c>
       <c r="M31" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
         <v>0.328</v>
       </c>
       <c r="O31" t="n">
-        <v>17.2</v>
+        <v>17</v>
       </c>
       <c r="P31" t="n">
-        <v>22.5</v>
+        <v>22.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.763</v>
+        <v>0.762</v>
       </c>
       <c r="R31" t="n">
         <v>11.8</v>
       </c>
       <c r="S31" t="n">
-        <v>28</v>
+        <v>27.9</v>
       </c>
       <c r="T31" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U31" t="n">
         <v>20.5</v>
       </c>
       <c r="V31" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.4</v>
@@ -6013,16 +6080,16 @@
         <v>20.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AB31" t="n">
-        <v>94.8</v>
+        <v>94.5</v>
       </c>
       <c r="AC31" t="n">
-        <v>-7.7</v>
+        <v>-8</v>
       </c>
       <c r="AD31" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
         <v>29</v>
@@ -6043,13 +6110,13 @@
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL31" t="n">
         <v>25</v>
       </c>
       <c r="AM31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AN31" t="n">
         <v>29</v>
@@ -6058,16 +6125,16 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AT31" t="n">
         <v>24</v>
@@ -6082,10 +6149,10 @@
         <v>12</v>
       </c>
       <c r="AX31" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ31" t="n">
         <v>13</v>
@@ -6097,7 +6164,7 @@
         <v>26</v>
       </c>
       <c r="BC31" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-17-2008-09</t>
+          <t>2009-02-17</t>
         </is>
       </c>
     </row>
